--- a/notes/images/Risk-Impact.xlsx
+++ b/notes/images/Risk-Impact.xlsx
@@ -150,10 +150,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13664139435367068"/>
+          <c:x val="0.1366413943536707"/>
           <c:y val="0.19480350915039729"/>
           <c:w val="0.70201765101527713"/>
-          <c:h val="0.65482210557013709"/>
+          <c:h val="0.6548221055701372"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -262,11 +262,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="145719296"/>
-        <c:axId val="145713408"/>
+        <c:axId val="104914304"/>
+        <c:axId val="104977920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145719296"/>
+        <c:axId val="104914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,12 +304,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145713408"/>
+        <c:crossAx val="104977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145713408"/>
+        <c:axId val="104977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,13 +341,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="5.5555555555555558E-3"/>
-              <c:y val="3.2839384660250805E-2"/>
+              <c:y val="3.2839384660250812E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145719296"/>
+        <c:crossAx val="104914304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -356,7 +356,661 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="26"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Risk / Impact Diagram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5283994743515182E-2"/>
+          <c:y val="9.9506689250245348E-2"/>
+          <c:w val="0.61947894712593943"/>
+          <c:h val="0.75011879265021963"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Illness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Injury</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work Overload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Family problems</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exceeding the budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deadline is too early</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Implementation of single tasks takes too long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goal not achived</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insufficient quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shortages of suppliers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="105281792"/>
+        <c:axId val="105304448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105281792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Risk Impact</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.72202878126128767"/>
+              <c:y val="0.83289358635995869"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105304448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105304448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Probability of Occurence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5555555555555558E-3"/>
+              <c:y val="3.2839384660250839E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105281792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73094556788477971"/>
+          <c:y val="0.13579786734129778"/>
+          <c:w val="0.26905443211522095"/>
+          <c:h val="0.67857644665811456"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -389,6 +1043,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193558</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -685,7 +1369,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
